--- a/public/reports/export-report-maret.xlsx
+++ b/public/reports/export-report-maret.xlsx
@@ -78,7 +78,7 @@
     <t>Email</t>
   </si>
   <si>
-    <t>ari@dak.co.id</t>
+    <t>kurosaki.ari.kun@gmail.com</t>
   </si>
   <si>
     <t>Alamat</t>
